--- a/Tracker_Product.xlsx
+++ b/Tracker_Product.xlsx
@@ -1,46 +1,214 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\William\price_scraper_proj\AutoBuy Script\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15379E3E-9C19-4C59-8FA5-370D5EF6FED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-26490" yWindow="3555" windowWidth="20220" windowHeight="12045" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-25500" yWindow="1155" windowWidth="21120" windowHeight="12045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrackProduct" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TrackProduct" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>needquantity</t>
+  </si>
+  <si>
+    <t>item/order</t>
+  </si>
+  <si>
+    <t>price target</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>bought price</t>
+  </si>
+  <si>
+    <t>order processed</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/hp-envy-x360-2-in-1-15-6-touch-screen-laptop-amd-ryzen-5-8gb-memory-256gb-ssd-nightfall-black/6453188.p?skuId=6453188</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>19-May-2021 13h46m</t>
+  </si>
+  <si>
+    <t>HP - ENVY x360 2-in-1 15.6" Touch-Screen Laptop - AMD Ryzen 5 - 8GB Memory - 256GB SSD - Nightfall Black</t>
+  </si>
+  <si>
+    <t>$809.99</t>
+  </si>
+  <si>
+    <t>19-May-2021 13h47m</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip code</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Yuqing</t>
+  </si>
+  <si>
+    <t>Qiao</t>
+  </si>
+  <si>
+    <t>4 Farnham Cir</t>
+  </si>
+  <si>
+    <t>Andover</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>qyqfiles@hotmail.com</t>
+  </si>
+  <si>
+    <t>credit num</t>
+  </si>
+  <si>
+    <t>expire month</t>
+  </si>
+  <si>
+    <t>expire year</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Payment info</t>
+  </si>
+  <si>
+    <t>01810</t>
+  </si>
+  <si>
+    <t>Personal info</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,32 +221,94 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </dxf>
@@ -127,103 +357,65 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Order" displayName="Order" ref="A1:F2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Order" displayName="Order" ref="A1:F3" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="date" dataDxfId="12"/>
-    <tableColumn id="2" name="url" dataDxfId="11"/>
-    <tableColumn id="3" name="needquantity" dataDxfId="10"/>
-    <tableColumn id="4" name="item/order" dataDxfId="9"/>
-    <tableColumn id="5" name="price target" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Status" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="date" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="url" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="needquantity" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="item/order" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="price target" dataDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Result" displayName="Result" ref="H1:L2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="H1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Result" displayName="Result" ref="H1:L3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="H1:L3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Time" dataDxfId="4"/>
-    <tableColumn id="2" name="title" dataDxfId="3"/>
-    <tableColumn id="3" name="bought price" dataDxfId="2"/>
-    <tableColumn id="4" name="order processed" dataDxfId="1"/>
-    <tableColumn id="5" name="status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Time" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="title" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="bought price" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="order processed" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="status" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5FA6CA02-C1FF-4826-92F5-808F03F36102}" name="Info" displayName="Info" ref="A1:B9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:B9" xr:uid="{366061CD-82DF-474D-B8CD-E5D02457C57A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{79446A18-E947-4FAD-A0E9-A088D4714D24}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8E661D8E-2556-4F49-8EC9-0CFDD9EA85AF}" name="Personal info" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1FDD8ED3-C0D5-4009-B9A1-CDD218B81E32}" name="Payment" displayName="Payment" ref="D1:E9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="D1:E9" xr:uid="{011CA846-601C-4B2C-B2FC-A619DA754F40}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AF4134BA-E41E-4879-A3E3-48A2107FB64D}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7952B036-9DC9-4D7D-B246-435F38F75745}" name="Payment info" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -511,163 +703,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12" customWidth="1" style="1" min="1" max="1"/>
-    <col width="21.42578125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13" customWidth="1" style="1" min="4" max="4"/>
-    <col width="14.140625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="9.140625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="3" min="7" max="7"/>
-    <col width="19.5703125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="11" customWidth="1" style="1" min="9" max="9"/>
-    <col width="14.28515625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="17.42578125" customWidth="1" style="1" min="11" max="11"/>
-    <col width="9.140625" customWidth="1" style="1" min="12" max="12"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>needquantity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>item/order</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>price target</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>bought price</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>order processed</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="54.75" customHeight="1">
-      <c r="A2" s="2" t="n">
-        <v>44331.64930555555</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.bestbuy.com/site/hp-envy-x360-2-in-1-15-6-touch-screen-laptop-intel-core-i7-16gb-memory-512gb-ssd-32gb-intel-optane-natural-silver/6452998.p?skuId=6452998</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>700</v>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18-May-2021 17h29m</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>HP - ENVY x360 2-in-1 15.6" Touch-Screen Laptop - Intel Core i7 - 16GB Memory - 512GB SSD + 32GB Intel Optane - Natural Silver</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>$999.99</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="135" customHeight="1">
-      <c r="A3" s="2" t="n"/>
+      <c r="E2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10">
+        <v>9788098625</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Tracker_Product.xlsx
+++ b/Tracker_Product.xlsx
@@ -1,212 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\William\price_scraper_proj\AutoBuy Script\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15379E3E-9C19-4C59-8FA5-370D5EF6FED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="1155" windowWidth="21120" windowHeight="12045" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-24300" yWindow="2100" windowWidth="21120" windowHeight="12045" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TrackProduct" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrackProduct" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Config" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>needquantity</t>
-  </si>
-  <si>
-    <t>item/order</t>
-  </si>
-  <si>
-    <t>price target</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>bought price</t>
-  </si>
-  <si>
-    <t>order processed</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/hp-envy-x360-2-in-1-15-6-touch-screen-laptop-amd-ryzen-5-8gb-memory-256gb-ssd-nightfall-black/6453188.p?skuId=6453188</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>19-May-2021 13h46m</t>
-  </si>
-  <si>
-    <t>HP - ENVY x360 2-in-1 15.6" Touch-Screen Laptop - AMD Ryzen 5 - 8GB Memory - 256GB SSD - Nightfall Black</t>
-  </si>
-  <si>
-    <t>$809.99</t>
-  </si>
-  <si>
-    <t>19-May-2021 13h47m</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip code</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Yuqing</t>
-  </si>
-  <si>
-    <t>Qiao</t>
-  </si>
-  <si>
-    <t>4 Farnham Cir</t>
-  </si>
-  <si>
-    <t>Andover</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>qyqfiles@hotmail.com</t>
-  </si>
-  <si>
-    <t>credit num</t>
-  </si>
-  <si>
-    <t>expire month</t>
-  </si>
-  <si>
-    <t>expire year</t>
-  </si>
-  <si>
-    <t>cvv</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Payment info</t>
-  </si>
-  <si>
-    <t>01810</t>
-  </si>
-  <si>
-    <t>Personal info</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,93 +87,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="7" tint="-0.249977111117893"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="7" tint="0.3999755851924192"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="9" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
+          <bgColor theme="9" tint="0.3999755851924192"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
@@ -357,63 +226,123 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Order" displayName="Order" ref="A1:F3" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Order" displayName="Order" ref="A1:F2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="date" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="url" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="needquantity" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="item/order" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="price target" dataDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status" dataDxfId="15"/>
+    <tableColumn id="1" name="date" dataDxfId="20"/>
+    <tableColumn id="2" name="url" dataDxfId="19"/>
+    <tableColumn id="3" name="needquantity" dataDxfId="18"/>
+    <tableColumn id="4" name="item/order" dataDxfId="17"/>
+    <tableColumn id="5" name="price target" dataDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Status" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Result" displayName="Result" ref="H1:L3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="H1:L3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Result" displayName="Result" ref="H1:L2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="H1:L3"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Time" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="title" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="bought price" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="order processed" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="status" dataDxfId="8"/>
+    <tableColumn id="1" name="Time" dataDxfId="12"/>
+    <tableColumn id="2" name="title" dataDxfId="11"/>
+    <tableColumn id="3" name="bought price" dataDxfId="10"/>
+    <tableColumn id="4" name="order processed" dataDxfId="9"/>
+    <tableColumn id="5" name="status" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5FA6CA02-C1FF-4826-92F5-808F03F36102}" name="Info" displayName="Info" ref="A1:B9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:B9" xr:uid="{366061CD-82DF-474D-B8CD-E5D02457C57A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Info" displayName="Info" ref="A1:B9" headerRowCount="1" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{79446A18-E947-4FAD-A0E9-A088D4714D24}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8E661D8E-2556-4F49-8EC9-0CFDD9EA85AF}" name="Personal info" dataDxfId="4"/>
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Personal info" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1FDD8ED3-C0D5-4009-B9A1-CDD218B81E32}" name="Payment" displayName="Payment" ref="D1:E9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="D1:E9" xr:uid="{011CA846-601C-4B2C-B2FC-A619DA754F40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Payment" displayName="Payment" ref="D1:E9" headerRowCount="1" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="D1:E9"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AF4134BA-E41E-4879-A3E3-48A2107FB64D}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{7952B036-9DC9-4D7D-B246-435F38F75745}" name="Payment info" dataDxfId="0"/>
+    <tableColumn id="1" name="Pay ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Payment info" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -703,269 +632,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col width="12" customWidth="1" style="1" min="1" max="1"/>
+    <col width="21.42578125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="14.140625" customWidth="1" style="11" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.140625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="19.5703125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="11" customWidth="1" style="1" min="9" max="9"/>
+    <col width="14.28515625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="17.42578125" customWidth="1" style="1" min="11" max="11"/>
+    <col width="9.140625" customWidth="1" style="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>needquantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>item/order</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>price target</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>bought price</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>order processed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="54.75" customHeight="1">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/site/hp-envy-x360-2-in-1-15-6-touch-screen-laptop-amd-ryzen-5-8gb-memory-256gb-ssd-nightfall-black/6453188.p?skuId=6453188</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>22-May-2021 16h16m</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>HP - ENVY x360 2-in-1 15.6" Touch-Screen Laptop - AMD Ryzen 5 - 8GB Memory - 256GB SSD - Nightfall Black</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>$809.99</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="135" customHeight="1">
+      <c r="A3" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="5" customWidth="1"/>
+    <col width="19" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.5703125" customWidth="1" style="10" min="2" max="2"/>
+    <col width="12.7109375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.85546875" customWidth="1" min="4" max="4"/>
+    <col width="20.85546875" customWidth="1" style="5" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Personal info</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Pay ID</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>Payment info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>First name</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Yuqing</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>credit num</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>4199664858600090</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Last name</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>Qiao</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>expire month</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>4 Farnham Cir</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>expire year</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>Andover</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>cvv</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>qyqfiles@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>zip code</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>01810</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>qqqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>qyqfiles@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>9788098625</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="9" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Tracker_Product.xlsx
+++ b/Tracker_Product.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-24300" yWindow="2100" windowWidth="21120" windowHeight="12045" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28800" yWindow="2880" windowWidth="21120" windowHeight="12045" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrackProduct" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -48,12 +48,6 @@
       <b val="1"/>
       <color theme="7" tint="-0.249977111117893"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -101,9 +95,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -123,12 +114,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
     <dxf>
       <font>
         <b val="1"/>
@@ -141,10 +139,6 @@
           <bgColor theme="7" tint="0.3999755851924192"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="left" vertical="bottom"/>
     </dxf>
     <dxf>
@@ -299,7 +293,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Order" displayName="Order" ref="A1:F2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:F3"/>
+  <autoFilter ref="A1:F2"/>
   <tableColumns count="6">
     <tableColumn id="1" name="date" dataDxfId="20"/>
     <tableColumn id="2" name="url" dataDxfId="19"/>
@@ -314,7 +308,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Result" displayName="Result" ref="H1:L2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="H1:L3"/>
+  <autoFilter ref="H1:L2"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Time" dataDxfId="12"/>
     <tableColumn id="2" name="title" dataDxfId="11"/>
@@ -338,11 +332,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Payment" displayName="Payment" ref="D1:E9" headerRowCount="1" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="D1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Payment" displayName="Payment" ref="D1:E7" headerRowCount="1" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="D1:E7"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Pay ID" dataDxfId="0"/>
-    <tableColumn id="2" name="Payment info" dataDxfId="1"/>
+    <tableColumn id="1" name="Pay ID" dataDxfId="1"/>
+    <tableColumn id="2" name="Payment info" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,14 +711,16 @@
       </c>
     </row>
     <row r="2" ht="54.75" customHeight="1">
-      <c r="A2" s="2" t="n"/>
+      <c r="A2" s="2" t="n">
+        <v>44338</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/hp-envy-x360-2-in-1-15-6-touch-screen-laptop-amd-ryzen-5-8gb-memory-256gb-ssd-nightfall-black/6453188.p?skuId=6453188</t>
+          <t>https://www.bestbuy.com/site/samsung-980-pro-1tb-pcie-4-0-x4-nvme-gen4-internal-gaming-ssd-m-2-for-laptops-and-desktops/6431939.p?skuId=6431939</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -734,30 +730,30 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22-May-2021 16h16m</t>
+          <t>24-May-2021 16h58m</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>HP - ENVY x360 2-in-1 15.6" Touch-Screen Laptop - AMD Ryzen 5 - 8GB Memory - 256GB SSD - Nightfall Black</t>
+          <t>Samsung - 980 PRO 1TB PCIE 4.0 x4 NVMe Gen4 Internal Gaming SSD M.2 for Laptops and Desktops</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$809.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -782,16 +778,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.5703125" customWidth="1" style="10" min="2" max="2"/>
+    <col width="23.5703125" customWidth="1" style="9" min="2" max="2"/>
     <col width="12.7109375" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.85546875" customWidth="1" min="4" max="4"/>
-    <col width="20.85546875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="20.85546875" customWidth="1" style="4" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -800,177 +796,173 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Personal info</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Pay ID</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Payment info</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>First name</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>Yuqing</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>credit num</t>
         </is>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="6" t="n">
         <v>4199664858600090</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Last name</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>Qiao</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>expire month</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>4 Farnham Cir</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>expire year</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>Andover</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>cvv</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>state</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>account</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>qyqfiles@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>zip code</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>01810</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>qqqq</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>qyqfiles@hotmail.com</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="9" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <v>9788098625</v>
       </c>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tracker_Product.xlsx
+++ b/Tracker_Product.xlsx
@@ -84,7 +84,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -109,6 +109,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -292,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Order" displayName="Order" ref="A1:F2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Order" displayName="Order" ref="A1:F3" headerRowCount="1" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
     <tableColumn id="1" name="date" dataDxfId="20"/>
     <tableColumn id="2" name="url" dataDxfId="19"/>
@@ -307,7 +310,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Result" displayName="Result" ref="H1:L2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Result" displayName="Result" ref="H1:L3" headerRowCount="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="H1:L2"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Time" dataDxfId="12"/>
@@ -634,7 +637,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -643,7 +646,7 @@
     <col width="21.42578125" customWidth="1" style="1" min="2" max="2"/>
     <col width="15.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="13" customWidth="1" style="1" min="4" max="4"/>
-    <col width="14.140625" customWidth="1" style="11" min="5" max="5"/>
+    <col width="14.140625" customWidth="1" style="12" min="5" max="5"/>
     <col width="9.140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="9.140625" customWidth="1" style="3" min="7" max="7"/>
     <col width="19.5703125" customWidth="1" style="1" min="8" max="8"/>
@@ -674,7 +677,7 @@
           <t>item/order</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="12" t="inlineStr">
         <is>
           <t>price target</t>
         </is>
@@ -725,7 +728,7 @@
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="12" t="n">
         <v>1000</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -735,7 +738,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>24-May-2021 16h58m</t>
+          <t>25-May-2021 12h30m</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -759,6 +762,48 @@
     </row>
     <row r="3" ht="135" customHeight="1">
       <c r="A3" s="2" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.bestbuy.com/site/hp-envy-x360-2-in-1-15-6-touch-screen-laptop-intel-core-i7-16gb-memory-512gb-ssd-32gb-intel-optane-natural-silver/6452998.p?skuId=6452998</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25-May-2021 12h37m</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HP - ENVY x360 2-in-1 15.6" Touch-Screen Laptop - Intel Core i7 - 16GB Memory - 512GB SSD + 32GB Intel Optane - Natural Silver</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$1,069.99</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tracker_Product.xlsx
+++ b/Tracker_Product.xlsx
@@ -84,7 +84,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -109,9 +109,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -311,7 +308,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Result" displayName="Result" ref="H1:L3" headerRowCount="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="H1:L2"/>
+  <autoFilter ref="H1:L3"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Time" dataDxfId="12"/>
     <tableColumn id="2" name="title" dataDxfId="11"/>
@@ -637,7 +634,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -646,7 +643,7 @@
     <col width="21.42578125" customWidth="1" style="1" min="2" max="2"/>
     <col width="15.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="13" customWidth="1" style="1" min="4" max="4"/>
-    <col width="14.140625" customWidth="1" style="12" min="5" max="5"/>
+    <col width="14.140625" customWidth="1" style="11" min="5" max="5"/>
     <col width="9.140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="9.140625" customWidth="1" style="3" min="7" max="7"/>
     <col width="19.5703125" customWidth="1" style="1" min="8" max="8"/>
@@ -677,7 +674,7 @@
           <t>item/order</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>price target</t>
         </is>
@@ -728,17 +725,17 @@
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="11" t="n">
         <v>1000</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25-May-2021 12h30m</t>
+          <t>25-May-2021 17h01m</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -752,11 +749,11 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
@@ -768,12 +765,12 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="11" t="n">
         <v>1000</v>
       </c>
       <c r="F3" t="inlineStr">
@@ -783,7 +780,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25-May-2021 12h37m</t>
+          <t>25-May-2021 17h07m</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -797,7 +794,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -823,7 +820,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -983,7 +980,7 @@
       </c>
       <c r="E7" s="8" t="inlineStr">
         <is>
-          <t>qqqq</t>
+          <t>qyqqyq123</t>
         </is>
       </c>
     </row>
